--- a/Projet/solver.xlsx
+++ b/Projet/solver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre/Documents/FAC/M2/S1/Projet Business Intelligence/TD/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D00AEF5-F218-C549-8323-66B23D86DBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB4BA3-F0F0-4547-8585-0B1B3AB205A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F14EA347-CAAD-4049-9C30-E726DB804CF4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PANDAS" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">DATA!$A$22:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">DATA!$A$20:$F$20</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -45,7 +45,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,18 +235,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +285,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346D86E2-79FC-254D-BAA6-8BD64D637164}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,382 +1818,409 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1E-4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="11">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C16" si="0">$A$22+$B$22*((1-EXP(-$A2/$E$22))/($A2/$E$22))+$C$22*(((1-EXP(-$A2/$E$22))/($A2/$E$22))-EXP(-$A2/$E$22))+$D$22*(((1-EXP(-$A2/$F$22))/($A2/$F$22))-EXP(-$A2/$F$22))</f>
+      <c r="C2" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A2/$E$20))/($A2/$E$20))+$C$20*(((1-EXP(-$A2/$E$20))/($A2/$E$20))-EXP(-$A2/$E$20))+$D$20*(((1-EXP(-$A2/$F$20))/($A2/$F$20))-EXP(-$A2/$F$20))</f>
         <v>2.0871425623572068E-2</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D16" si="1">$B2-$C2</f>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:D16" si="0">$B2-$C2</f>
         <v>6.2857437642793029E-4</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E16" si="2">POWER($D2,2)</f>
+      <c r="E2" s="11">
+        <f t="shared" ref="E2:E16" si="1">POWER($D2,2)</f>
         <v>3.9510574670176142E-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>0.25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>2.35E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A3/$E$20))/($A3/$E$20))+$C$20*(((1-EXP(-$A3/$E$20))/($A3/$E$20))-EXP(-$A3/$E$20))+$D$20*(((1-EXP(-$A3/$F$20))/($A3/$F$20))-EXP(-$A3/$F$20))</f>
+        <v>2.2571654128359805E-2</v>
+      </c>
+      <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>2.2571654128359805E-2</v>
-      </c>
-      <c r="D3" s="2">
+        <v>9.2834587164019461E-4</v>
+      </c>
+      <c r="E3" s="11">
         <f t="shared" si="1"/>
-        <v>9.2834587164019461E-4</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="2"/>
         <v>8.6182605739139267E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A4/$E$20))/($A4/$E$20))+$C$20*(((1-EXP(-$A4/$E$20))/($A4/$E$20))-EXP(-$A4/$E$20))+$D$20*(((1-EXP(-$A4/$F$20))/($A4/$F$20))-EXP(-$A4/$F$20))</f>
+        <v>2.3821997556455258E-2</v>
+      </c>
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>2.3821997556455258E-2</v>
-      </c>
-      <c r="D4" s="2">
+        <v>2.1780024435447409E-3</v>
+      </c>
+      <c r="E4" s="11">
         <f t="shared" si="1"/>
-        <v>2.1780024435447409E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
         <v>4.743694644086862E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>0.75</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A5/$E$20))/($A5/$E$20))+$C$20*(((1-EXP(-$A5/$E$20))/($A5/$E$20))-EXP(-$A5/$E$20))+$D$20*(((1-EXP(-$A5/$F$20))/($A5/$F$20))-EXP(-$A5/$F$20))</f>
+        <v>2.7487314927141394E-2</v>
+      </c>
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>2.7487314927141394E-2</v>
-      </c>
-      <c r="D5" s="2">
+        <v>7.1268507285860566E-4</v>
+      </c>
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
-        <v>7.1268507285860566E-4</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
         <v>5.0792001307547604E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A6/$E$20))/($A6/$E$20))+$C$20*(((1-EXP(-$A6/$E$20))/($A6/$E$20))-EXP(-$A6/$E$20))+$D$20*(((1-EXP(-$A6/$F$20))/($A6/$F$20))-EXP(-$A6/$F$20))</f>
+        <v>3.1297525963242576E-2</v>
+      </c>
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>3.1297525963242576E-2</v>
-      </c>
-      <c r="D6" s="2">
+        <v>-7.975259632425763E-4</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
-        <v>-7.975259632425763E-4</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
         <v>6.3604766204599921E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>3.44E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A7/$E$20))/($A7/$E$20))+$C$20*(((1-EXP(-$A7/$E$20))/($A7/$E$20))-EXP(-$A7/$E$20))+$D$20*(((1-EXP(-$A7/$F$20))/($A7/$F$20))-EXP(-$A7/$F$20))</f>
+        <v>4.0314337568521527E-2</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>4.0314337568521527E-2</v>
-      </c>
-      <c r="D7" s="2">
+        <v>-5.9143375685215271E-3</v>
+      </c>
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>-5.9143375685215271E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
         <v>3.4979388874425132E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A8/$E$20))/($A8/$E$20))+$C$20*(((1-EXP(-$A8/$E$20))/($A8/$E$20))-EXP(-$A8/$E$20))+$D$20*(((1-EXP(-$A8/$F$20))/($A8/$F$20))-EXP(-$A8/$F$20))</f>
+        <v>4.3840222720679729E-2</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>4.3840222720679729E-2</v>
-      </c>
-      <c r="D8" s="2">
+        <v>-5.8402227206797303E-3</v>
+      </c>
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>-5.8402227206797303E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
         <v>3.4108201427143749E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A9/$E$20))/($A9/$E$20))+$C$20*(((1-EXP(-$A9/$E$20))/($A9/$E$20))-EXP(-$A9/$E$20))+$D$20*(((1-EXP(-$A9/$F$20))/($A9/$F$20))-EXP(-$A9/$F$20))</f>
+        <v>4.5614578624117892E-2</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>4.5614578624117892E-2</v>
-      </c>
-      <c r="D9" s="2">
+        <v>-3.1145786241178891E-3</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>-3.1145786241178891E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
         <v>9.7006000058120825E-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A10/$E$20))/($A10/$E$20))+$C$20*(((1-EXP(-$A10/$E$20))/($A10/$E$20))-EXP(-$A10/$E$20))+$D$20*(((1-EXP(-$A10/$F$20))/($A10/$F$20))-EXP(-$A10/$F$20))</f>
+        <v>4.667940424463566E-2</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>4.667940424463566E-2</v>
-      </c>
-      <c r="D10" s="2">
+        <v>-1.6794042446356613E-3</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6794042446356613E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
         <v>2.8203986169002764E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A11/$E$20))/($A11/$E$20))+$C$20*(((1-EXP(-$A11/$E$20))/($A11/$E$20))-EXP(-$A11/$E$20))+$D$20*(((1-EXP(-$A11/$F$20))/($A11/$F$20))-EXP(-$A11/$F$20))</f>
+        <v>4.7389291698020204E-2</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>4.7389291698020204E-2</v>
-      </c>
-      <c r="D11" s="2">
+        <v>-5.8929169802020287E-4</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>-5.8929169802020287E-4</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
         <v>3.4726470535553395E-7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>4.82E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A12/$E$20))/($A12/$E$20))+$C$20*(((1-EXP(-$A12/$E$20))/($A12/$E$20))-EXP(-$A12/$E$20))+$D$20*(((1-EXP(-$A12/$F$20))/($A12/$F$20))-EXP(-$A12/$F$20))</f>
+        <v>4.7896354227588006E-2</v>
+      </c>
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>4.7896354227588006E-2</v>
-      </c>
-      <c r="D12" s="2">
+        <v>3.036457724119937E-4</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
-        <v>3.036457724119937E-4</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
         <v>9.2200755103676268E-8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A13/$E$20))/($A13/$E$20))+$C$20*(((1-EXP(-$A13/$E$20))/($A13/$E$20))-EXP(-$A13/$E$20))+$D$20*(((1-EXP(-$A13/$F$20))/($A13/$F$20))-EXP(-$A13/$F$20))</f>
+        <v>4.8276651125812219E-2</v>
+      </c>
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
+        <v>1.1233488741877809E-3</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2619126931389548E-6</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="C14" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A14/$E$20))/($A14/$E$20))+$C$20*(((1-EXP(-$A14/$E$20))/($A14/$E$20))-EXP(-$A14/$E$20))+$D$20*(((1-EXP(-$A14/$F$20))/($A14/$F$20))-EXP(-$A14/$F$20))</f>
         <v>4.8276651125812219E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1233488741877809E-3</v>
+      </c>
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
-        <v>1.1233488741877809E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
         <v>1.2619126931389548E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="C15" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A15/$E$20))/($A15/$E$20))+$C$20*(((1-EXP(-$A15/$E$20))/($A15/$E$20))-EXP(-$A15/$E$20))+$D$20*(((1-EXP(-$A15/$F$20))/($A15/$F$20))-EXP(-$A15/$F$20))</f>
+        <v>4.8572437602226133E-2</v>
+      </c>
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>4.8276651125812219E-2</v>
-      </c>
-      <c r="D14" s="2">
+        <v>1.7275623977738644E-3</v>
+      </c>
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
-        <v>1.1233488741877809E-3</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.2619126931389548E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="C15" s="2">
+        <v>2.9844718382021835E-6</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5.11E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <f>$A$20+$B$20*((1-EXP(-$A16/$E$20))/($A16/$E$20))+$C$20*(((1-EXP(-$A16/$E$20))/($A16/$E$20))-EXP(-$A16/$E$20))+$D$20*(((1-EXP(-$A16/$F$20))/($A16/$F$20))-EXP(-$A16/$F$20))</f>
+        <v>4.8809066783357551E-2</v>
+      </c>
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>4.8572437602226133E-2</v>
-      </c>
-      <c r="D15" s="2">
+        <v>2.290933216642449E-3</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>1.7275623977738644E-3</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9844718382021835E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5.11E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8809066783357551E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>2.290933216642449E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
         <v>5.2483750031157179E-6</v>
       </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="11">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7">
         <f>SUM(E2:E16)</f>
         <v>9.9949320735637757E-5</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>5.0938729413540308E-2</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B20" s="5">
         <v>-3.0072870471468935E-2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C20" s="5">
         <v>1.9899601384147387E-2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D20" s="5">
         <v>-8.3474966147961599E-2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E20" s="5">
         <v>0.10942778573784272</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F20" s="6">
         <v>0.24178971161379317</v>
       </c>
     </row>
   </sheetData>
   <scenarios current="0">
     <scenario name="TEST1" count="6" user="Alexandre ." comment="Créé par Alexandre . le 1/13/2022">
-      <inputCells r="A22" val="0,0509387294135403"/>
-      <inputCells r="B22" val="-0,0300728704714689"/>
-      <inputCells r="C22" val="0,0198996013841474"/>
-      <inputCells r="D22" val="-0,0834749661479616"/>
-      <inputCells r="E22" val="0,109427785737843"/>
-      <inputCells r="F22" val="0,241789711613793"/>
+      <inputCells r="A20" val="0,0509387294135403"/>
+      <inputCells r="B20" val="-0,0300728704714689"/>
+      <inputCells r="C20" val="0,0198996013841474"/>
+      <inputCells r="D20" val="-0,0834749661479616"/>
+      <inputCells r="E20" val="0,109427785737843"/>
+      <inputCells r="F20" val="0,241789711613793"/>
     </scenario>
   </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
